--- a/estudios.xlsx
+++ b/estudios.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">estudios!$A$1:$L$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">observaciones!$A$3:$AB$48</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">estudios!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="329">
   <si>
     <t>ah_id</t>
   </si>
@@ -1000,6 +1001,12 @@
   </si>
   <si>
     <t>SUMA</t>
+  </si>
+  <si>
+    <t>acumulado</t>
+  </si>
+  <si>
+    <t>estudio</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,6 +1328,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1512,7 +1525,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1527,6 +1540,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1572,7 +1593,16 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1868,8 +1898,8 @@
   <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5097,22 +5127,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:XFB48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N48" sqref="N48"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="5.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="5.85546875" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16382">
@@ -5139,6 +5176,8 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="17"/>
     </row>
     <row r="2" spans="1:16382">
       <c r="D2" s="3" t="s">
@@ -5208,6 +5247,8 @@
         <v>320</v>
       </c>
       <c r="Z2" s="2"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="17"/>
     </row>
     <row r="3" spans="1:16382" s="11" customFormat="1">
       <c r="A3" s="9"/>
@@ -5286,8 +5327,12 @@
       <c r="Z3" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
+      <c r="AA3" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>328</v>
+      </c>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
@@ -21681,6 +21726,13 @@
         <f>SUM(D4:Y4)</f>
         <v>80</v>
       </c>
+      <c r="AA4" s="5">
+        <f>Z4</f>
+        <v>80</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="5" spans="1:16382">
       <c r="A5" s="3">
@@ -21724,49 +21776,58 @@
         <f t="shared" ref="Z5:Z47" si="0">SUM(D5:Y5)</f>
         <v>434</v>
       </c>
+      <c r="AA5" s="5">
+        <f>AA4+Z5</f>
+        <v>514</v>
+      </c>
+      <c r="AB5" s="17" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="6" spans="1:16382">
-      <c r="A6" s="3">
+    <row r="6" spans="1:16382" hidden="1">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="14">
         <v>314</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14">
         <v>2</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14">
         <v>27</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="2">
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="15">
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="18"/>
     </row>
     <row r="7" spans="1:16382">
       <c r="A7" s="3">
@@ -21810,6 +21871,13 @@
         <f t="shared" si="0"/>
         <v>885</v>
       </c>
+      <c r="AA7" s="5">
+        <f>AA5+Z7</f>
+        <v>1399</v>
+      </c>
+      <c r="AB7" s="17" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="8" spans="1:16382">
       <c r="A8" s="3">
@@ -21853,6 +21921,13 @@
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
+      <c r="AA8" s="5">
+        <f>AA7+Z8</f>
+        <v>1711</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="9" spans="1:16382">
       <c r="A9" s="3">
@@ -21894,47 +21969,56 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
+      <c r="AA9" s="5">
+        <f>AA8+Z9</f>
+        <v>1756</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
-    <row r="10" spans="1:16382">
-      <c r="A10" s="3">
+    <row r="10" spans="1:16382" hidden="1">
+      <c r="A10" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="14">
         <v>165</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14">
         <v>37</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="2">
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="15">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:16382">
       <c r="A11" s="3">
@@ -21979,6 +22063,13 @@
       <c r="Z11" s="2">
         <f t="shared" si="0"/>
         <v>333</v>
+      </c>
+      <c r="AA11" s="5">
+        <f>AA9+Z11</f>
+        <v>2089</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:16382">
@@ -22019,6 +22110,13 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
+      <c r="AA12" s="5">
+        <f>AA11+Z12</f>
+        <v>2137</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="13" spans="1:16382">
       <c r="A13" s="3">
@@ -22062,45 +22160,54 @@
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
+      <c r="AA13" s="5">
+        <f>AA12+Z13</f>
+        <v>2339</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
-    <row r="14" spans="1:16382">
-      <c r="A14" s="3">
+    <row r="14" spans="1:16382" hidden="1">
+      <c r="A14" s="14">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="14">
         <v>285</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="2">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="15">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="18"/>
     </row>
     <row r="15" spans="1:16382">
       <c r="A15" s="3">
@@ -22144,6 +22251,13 @@
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
+      <c r="AA15" s="5">
+        <f>AA13+Z15</f>
+        <v>2493</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="16" spans="1:16382">
       <c r="A16" s="3">
@@ -22187,8 +22301,15 @@
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
+      <c r="AA16" s="5">
+        <f>AA15+Z16</f>
+        <v>3073</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>275</v>
+      </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:28">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -22226,49 +22347,58 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
+      <c r="AA17" s="5">
+        <f>AA16+Z17</f>
+        <v>3139</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>275</v>
+      </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:28" hidden="1">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="14">
         <v>219</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14">
         <v>199</v>
       </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="2">
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="15">
         <f t="shared" si="0"/>
         <v>418</v>
       </c>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="14"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:28">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -22310,49 +22440,58 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
+      <c r="AA19" s="5">
+        <f>AA17+Z19</f>
+        <v>3619</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>275</v>
+      </c>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="3">
+    <row r="20" spans="1:28" hidden="1">
+      <c r="A20" s="14">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="14">
         <v>16</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14">
         <v>5</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="2">
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="14"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:28">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -22394,47 +22533,56 @@
         <f t="shared" si="0"/>
         <v>321</v>
       </c>
+      <c r="AA21" s="5">
+        <f>AA19+Z21</f>
+        <v>3940</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="3">
+    <row r="22" spans="1:28" hidden="1">
+      <c r="A22" s="14">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14">
         <v>194</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="2">
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="15">
         <f t="shared" si="0"/>
         <v>194</v>
       </c>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="14"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:28">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -22472,8 +22620,15 @@
         <f t="shared" si="0"/>
         <v>194</v>
       </c>
+      <c r="AA23" s="5">
+        <f>AA21+Z23</f>
+        <v>4134</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:28">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -22513,8 +22668,15 @@
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
+      <c r="AA24" s="5">
+        <f>AA23+Z24</f>
+        <v>4664</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:28">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -22556,49 +22718,58 @@
         <f t="shared" si="0"/>
         <v>429</v>
       </c>
+      <c r="AA25" s="5">
+        <f>AA24+Z25</f>
+        <v>5093</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="3">
+    <row r="26" spans="1:28" hidden="1">
+      <c r="A26" s="14">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="14">
         <v>65</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14">
         <v>24</v>
       </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="2">
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="15">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="14"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:28">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -22640,49 +22811,58 @@
         <f t="shared" si="0"/>
         <v>492</v>
       </c>
+      <c r="AA27" s="5">
+        <f>AA25+Z27</f>
+        <v>5585</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="3">
+    <row r="28" spans="1:28" hidden="1">
+      <c r="A28" s="14">
         <v>25</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="14">
         <v>133</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14">
         <v>27</v>
       </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="2">
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="15">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="18"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:28">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -22722,8 +22902,15 @@
         <f t="shared" si="0"/>
         <v>412</v>
       </c>
+      <c r="AA29" s="5">
+        <f>AA27+Z29</f>
+        <v>5997</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:28">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -22761,51 +22948,60 @@
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
+      <c r="AA30" s="5">
+        <f>AA29+Z30</f>
+        <v>6084</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="3">
+    <row r="31" spans="1:28" hidden="1">
+      <c r="A31" s="14">
         <v>28</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="14">
         <v>575</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="14">
         <v>12</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14">
         <v>4</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="2">
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="15">
         <f t="shared" si="0"/>
         <v>591</v>
       </c>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="18"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -22843,8 +23039,15 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="AA32" s="5">
+        <f>AA30+Z32</f>
+        <v>6094</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:28">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -22886,8 +23089,15 @@
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
+      <c r="AA33" s="5">
+        <f>AA32+Z33</f>
+        <v>6289</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:28">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -22931,8 +23141,12 @@
         <f t="shared" si="0"/>
         <v>187</v>
       </c>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:28">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -22974,49 +23188,55 @@
         <f t="shared" si="0"/>
         <v>549</v>
       </c>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="3" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="36" spans="1:26">
-      <c r="A36" s="3">
+    <row r="36" spans="1:28" hidden="1">
+      <c r="A36" s="14">
         <v>33</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="14">
         <v>68</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14">
         <v>5</v>
       </c>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="2">
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="15">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="18"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:28">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -23058,8 +23278,12 @@
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="3" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:28">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -23103,8 +23327,12 @@
         <f t="shared" si="0"/>
         <v>269</v>
       </c>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="3" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:28">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -23148,49 +23376,55 @@
         <f t="shared" si="0"/>
         <v>475</v>
       </c>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="3" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="3">
+    <row r="40" spans="1:28" hidden="1">
+      <c r="A40" s="14">
         <v>37</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="14">
         <v>48</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3">
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14">
         <v>25</v>
       </c>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="2">
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="15">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="18"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:28">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -23230,8 +23464,12 @@
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:28">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -23273,8 +23511,12 @@
         <f t="shared" si="0"/>
         <v>567</v>
       </c>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:28">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -23314,49 +23556,55 @@
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="3">
+    <row r="44" spans="1:28" hidden="1">
+      <c r="A44" s="14">
         <v>41</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="14">
         <v>117</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3">
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14">
         <v>1</v>
       </c>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="2">
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="15">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="18"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:28">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -23398,8 +23646,12 @@
         <f t="shared" si="0"/>
         <v>466</v>
       </c>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -23437,8 +23689,12 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:28">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -23476,8 +23732,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="48" spans="1:26" s="1" customFormat="1">
+    <row r="48" spans="1:28" s="1" customFormat="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="13" t="s">
@@ -23575,9 +23835,16 @@
         <f t="shared" si="1"/>
         <v>11877</v>
       </c>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="17"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:AB48">
+    <filterColumn colId="13">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.11" right="0.12" top="0.25" bottom="0.33" header="0.13" footer="0.16"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>